--- a/tisk.xlsx
+++ b/tisk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tisc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\MATLAB\TISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
@@ -710,18 +710,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -737,21 +725,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -760,6 +733,33 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9175,7 +9175,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11258,7 +11257,7 @@
             <c:numRef>
               <c:f>'lab8'!$B$11:$K$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.6294585837823099</c:v>
@@ -12303,7 +12302,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13624,7 +13622,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14209,7 +14207,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14406,7 +14404,7 @@
             <c:numRef>
               <c:f>'lab9'!$O$3:$O$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>6.40095294606393E-2</c:v>
@@ -14794,7 +14792,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -46714,7 +46712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -46728,817 +46726,817 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="34"/>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="34"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="27">
         <v>194.14838261953699</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="26">
         <v>1.0000001900486399</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="26">
         <v>0.13020007682081999</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="27">
         <v>48.715557161616502</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="26">
         <v>1.0000000154629201</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="26">
         <v>6.40095294606393E-2</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="25">
         <v>1</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="27">
         <f>B3</f>
         <v>194.14838261953699</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="28">
         <f>C3*100</f>
         <v>100.00001900486399</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="27">
         <f>D3</f>
         <v>0.13020007682081999</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="27">
         <f>E3</f>
         <v>48.715557161616502</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="28">
         <f t="shared" ref="N3:N18" si="0">F3*100</f>
         <v>100.00000154629201</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="27">
         <f>G3</f>
         <v>6.40095294606393E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="27">
         <v>432.95877781706901</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="26">
         <v>0.92257983555591805</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="26">
         <v>0.223237745267445</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="27">
         <v>94.420047551182606</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="26">
         <v>0.99740391101034698</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="26">
         <v>6.9450295201006498E-2</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="25">
         <v>2</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="27">
         <f t="shared" ref="J4:J13" si="1">B4</f>
         <v>432.95877781706901</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="28">
         <f>C4*100</f>
         <v>92.257983555591807</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="27">
         <f t="shared" ref="L4:L13" si="2">D4</f>
         <v>0.223237745267445</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="27">
         <f t="shared" ref="M4:M18" si="3">E4</f>
         <v>94.420047551182606</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="28">
         <f t="shared" si="0"/>
         <v>99.740391101034703</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="27">
         <f t="shared" ref="O4:O18" si="4">G4</f>
         <v>6.9450295201006498E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="27">
         <v>634.47855701522599</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="26">
         <v>0.91107377876275497</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="26">
         <v>0.26813773186301698</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="27">
         <v>131.528543577352</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="26">
         <v>0.97722680012490104</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="26">
         <v>6.7422463547462702E-2</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="25">
         <v>3</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="27">
         <f t="shared" si="1"/>
         <v>634.47855701522599</v>
       </c>
-      <c r="K5" s="37">
-        <f t="shared" ref="K4:K13" si="5">C5*100</f>
+      <c r="K5" s="28">
+        <f t="shared" ref="K5:K13" si="5">C5*100</f>
         <v>91.107377876275493</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="27">
         <f t="shared" si="2"/>
         <v>0.26813773186301698</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="27">
         <f t="shared" si="3"/>
         <v>131.528543577352</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="28">
         <f t="shared" si="0"/>
         <v>97.722680012490102</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="27">
         <f t="shared" si="4"/>
         <v>6.7422463547462702E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="27">
         <v>783.65142707452299</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="26">
         <v>0.91674923955079801</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="26">
         <v>0.29053520266786098</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="27">
         <v>162.67270014244701</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="26">
         <v>0.99467102155803599</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="26">
         <v>6.8564916630037998E-2</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="25">
         <v>4</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="27">
         <f t="shared" si="1"/>
         <v>783.65142707452299</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="28">
         <f t="shared" si="5"/>
         <v>91.674923955079805</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="27">
         <f t="shared" si="2"/>
         <v>0.29053520266786098</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="27">
         <f t="shared" si="3"/>
         <v>162.67270014244701</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="28">
         <f t="shared" si="0"/>
         <v>99.467102155803602</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="27">
         <f t="shared" si="4"/>
         <v>6.8564916630037998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="27">
         <v>883.03267671396304</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>0.92883013891073496</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="26">
         <v>0.30187285362407601</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="27">
         <v>187.52577695238901</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="26">
         <v>0.99953489126703099</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="26">
         <v>6.8617973597169604E-2</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="25">
         <v>5</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="27">
         <f t="shared" si="1"/>
         <v>883.03267671396304</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="28">
         <f t="shared" si="5"/>
         <v>92.883013891073489</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="27">
         <f t="shared" si="2"/>
         <v>0.30187285362407601</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="27">
         <f t="shared" si="3"/>
         <v>187.52577695238901</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="28">
         <f t="shared" si="0"/>
         <v>99.953489126703104</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="27">
         <f t="shared" si="4"/>
         <v>6.8617973597169604E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="27">
         <v>924.22004896914405</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="26">
         <v>0.94789667504783104</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="26">
         <v>0.30481682209025301</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="27">
         <v>209.740777739696</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="26">
         <v>0.99987326841664204</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="26">
         <v>6.8505887872885501E-2</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="25">
         <v>6</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="27">
         <f t="shared" si="1"/>
         <v>924.22004896914405</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="28">
         <f t="shared" si="5"/>
         <v>94.789667504783097</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="27">
         <f t="shared" si="2"/>
         <v>0.30481682209025301</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="27">
         <f t="shared" si="3"/>
         <v>209.740777739696</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="28">
         <f t="shared" si="0"/>
         <v>99.987326841664199</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="27">
         <f t="shared" si="4"/>
         <v>6.8505887872885501E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="27">
         <v>864.96639728634705</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="26">
         <v>0.81827311642422496</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="26">
         <v>0.29092517333658502</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="27">
         <v>237.79305453786199</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="26">
         <v>0.93507540584842597</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="26">
         <v>6.8546390262629597E-2</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="25">
         <v>7</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="27">
         <f t="shared" si="1"/>
         <v>864.96639728634705</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="28">
         <f t="shared" si="5"/>
         <v>81.827311642422501</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="27">
         <f t="shared" si="2"/>
         <v>0.29092517333658502</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="27">
         <f t="shared" si="3"/>
         <v>237.79305453786199</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="28">
         <f t="shared" si="0"/>
         <v>93.507540584842602</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="27">
         <f t="shared" si="4"/>
         <v>6.8546390262629597E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>8</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="27">
         <v>603.72344441570601</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="26">
         <v>0.867251782707256</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="26">
         <v>0.25652556032023899</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="27">
         <v>211.45593278370299</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="26">
         <v>0.99563780530210599</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="26">
         <v>6.86429676842613E-2</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="25">
         <v>8</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="27">
         <f t="shared" si="1"/>
         <v>603.72344441570601</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="28">
         <f t="shared" si="5"/>
         <v>86.725178270725607</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="27">
         <f t="shared" si="2"/>
         <v>0.25652556032023899</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="27">
         <f t="shared" si="3"/>
         <v>211.45593278370299</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="28">
         <f t="shared" si="0"/>
         <v>99.563780530210593</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="27">
         <f t="shared" si="4"/>
         <v>6.86429676842613E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>9</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="27">
         <v>393.93699467633701</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <v>0.84056649003777695</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="26">
         <v>0.21022275228102799</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="27">
         <v>179.86670625149301</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="26">
         <v>0.997848218647859</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="26">
         <v>6.8637956545464798E-2</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="25">
         <v>9</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="27">
         <f t="shared" si="1"/>
         <v>393.93699467633701</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="28">
         <f t="shared" si="5"/>
         <v>84.056649003777693</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="27">
         <f t="shared" si="2"/>
         <v>0.21022275228102799</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="27">
         <f t="shared" si="3"/>
         <v>179.86670625149301</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="28">
         <f t="shared" si="0"/>
         <v>99.784821864785897</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="27">
         <f t="shared" si="4"/>
         <v>6.8637956545464798E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>10</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="27">
         <v>216.493981156877</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="26">
         <v>0.82712735470175403</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="26">
         <v>0.14676478673889701</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="27">
         <v>152.52140723034501</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="26">
         <v>0.92312229670121304</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="26">
         <v>6.4205550387153296E-2</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="25">
         <v>10</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="27">
         <f t="shared" si="1"/>
         <v>216.493981156877</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="28">
         <f t="shared" si="5"/>
         <v>82.712735470175403</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="27">
         <f t="shared" si="2"/>
         <v>0.14676478673889701</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="27">
         <f t="shared" si="3"/>
         <v>152.52140723034501</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="28">
         <f t="shared" si="0"/>
         <v>92.312229670121297</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="27">
         <f t="shared" si="4"/>
         <v>6.4205550387153296E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>11</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="27">
         <v>75.545820394836497</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="26">
         <v>1.00000011223388</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="26">
         <v>5.3660929912735897E-2</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="27">
         <v>130.32080816035599</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="26">
         <v>0.96616508696979198</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="26">
         <v>6.6863202161327198E-2</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="25">
         <v>11</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="27">
         <f t="shared" si="1"/>
         <v>75.545820394836497</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="28">
         <f t="shared" si="5"/>
         <v>100.000011223388</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="27">
         <f t="shared" si="2"/>
         <v>5.3660929912735897E-2</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="27">
         <f t="shared" si="3"/>
         <v>130.32080816035599</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="28">
         <f t="shared" si="0"/>
         <v>96.616508696979196</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="27">
         <f t="shared" si="4"/>
         <v>6.6863202161327198E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>12</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="36">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="27">
         <v>107.93866933029</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="26">
         <v>0.99355054366322004</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="26">
         <v>6.8196256561361607E-2</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <v>12</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="36">
+      <c r="J14" s="27"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="27">
         <f t="shared" si="3"/>
         <v>107.93866933029</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="28">
         <f t="shared" si="0"/>
         <v>99.355054366322008</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="27">
         <f t="shared" si="4"/>
         <v>6.8196256561361607E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>13</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="36">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="27">
         <v>84.046054760262095</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="26">
         <v>0.99894575630003102</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="26">
         <v>6.7651826021852504E-2</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="25">
         <v>13</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="36">
+      <c r="J15" s="27"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="27">
         <f t="shared" si="3"/>
         <v>84.046054760262095</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="28">
         <f t="shared" si="0"/>
         <v>99.894575630003104</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="27">
         <f t="shared" si="4"/>
         <v>6.7651826021852504E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>14</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="36">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27">
         <v>59.1160714287955</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="26">
         <v>0.97312103450387399</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="26">
         <v>6.3745772655397895E-2</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="25">
         <v>14</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="36">
+      <c r="J16" s="27"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="27">
         <f t="shared" si="3"/>
         <v>59.1160714287955</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="28">
         <f t="shared" si="0"/>
         <v>97.312103450387397</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="27">
         <f t="shared" si="4"/>
         <v>6.3745772655397895E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>15</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="36">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="27">
         <v>35.889390698843002</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="26">
         <v>0.99870109556973996</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="26">
         <v>6.4073304254616895E-2</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="25">
         <v>15</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="36">
+      <c r="J17" s="27"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="27">
         <f t="shared" si="3"/>
         <v>35.889390698843002</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="28">
         <f t="shared" si="0"/>
         <v>99.870109556974</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="27">
         <f t="shared" si="4"/>
         <v>6.4073304254616895E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>16</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="36">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27">
         <v>15.1457587652414</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="26">
         <v>1.0000000908201501</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="26">
         <v>4.5097011470943998E-2</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="25">
         <v>16</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="36">
+      <c r="J18" s="27"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="27">
         <f t="shared" si="3"/>
         <v>15.1457587652414</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="28">
         <f t="shared" si="0"/>
         <v>100.00000908201501</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="27">
         <f t="shared" si="4"/>
         <v>4.5097011470943998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>17</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="I19" s="29">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="I19" s="25">
         <v>17</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:15" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -47616,12 +47614,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -47632,7 +47630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -47680,34 +47678,34 @@
       <c r="A2" s="1">
         <v>0.1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>1.6958331249457601</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="22">
         <v>1.58121915561885</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>1.52329867057636</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="22">
         <v>1.49152986881091</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="22">
         <v>1.4731785791883401</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="22">
         <v>1.4629846497026999</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="22">
         <v>1.49020447827516</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="22">
         <v>1.54590168165606</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="22">
         <v>1.6323246027121801</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="22">
         <v>1.7494299043900401</v>
       </c>
     </row>
@@ -47715,34 +47713,34 @@
       <c r="A3" s="4">
         <v>0.11</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>1.67753213689221</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>1.5637767669712801</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>1.50651282426064</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="22">
         <v>1.4751894492709501</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>1.4574692886238501</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="22">
         <v>1.44883671591942</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="22">
         <v>1.47779260342192</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="22">
         <v>1.5334702757571399</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="22">
         <v>1.6190006231073599</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="22">
         <v>1.7359124871048499</v>
       </c>
     </row>
@@ -47750,34 +47748,34 @@
       <c r="A4" s="1">
         <v>0.12</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>1.6608810207863001</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>1.54793498072779</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>1.49128300983643</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>1.4603741383950399</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>1.44322728353744</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>1.4359780312350301</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>1.46659124488648</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="22">
         <v>1.52227994691816</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="22">
         <v>1.60702028150434</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="22">
         <v>1.7237569892079201</v>
       </c>
     </row>
@@ -47785,34 +47783,34 @@
       <c r="A5" s="4">
         <v>0.13</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>1.6456005534490701</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>1.5334226987281301</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>1.47734577454561</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>1.44682604136648</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <v>1.4302053871148901</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <v>1.4241943368133401</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="22">
         <v>1.45640019710646</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="22">
         <v>1.5121259850044899</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="22">
         <v>1.5961617229066101</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="22">
         <v>1.71273823398156</v>
       </c>
     </row>
@@ -47820,34 +47818,34 @@
       <c r="A6" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>1.6314755260821701</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>1.5200310435865001</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>1.4644981785306701</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>1.4343464807256301</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>1.41821304308887</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>1.4133199001204599</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>1.44706495886554</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="22">
         <v>1.50285052959545</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="22">
         <v>1.58625396731754</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="22">
         <v>1.70268282799574</v>
       </c>
     </row>
@@ -47855,34 +47853,34 @@
       <c r="A7" s="4">
         <v>0.15</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>1.61833659491132</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>1.5075957650921501</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>1.45258067424361</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>1.4227792689163701</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <v>1.4071003722472399</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>1.4032239724759401</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>1.43846394492789</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="22">
         <v>1.49432939800704</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="22">
         <v>1.5771626088989701</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <v>1.6934545641215399</v>
       </c>
     </row>
@@ -47890,34 +47888,34 @@
       <c r="A8" s="1">
         <v>0.16</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>1.60604823369042</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>1.49598545798141</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>1.44146562021062</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <v>1.4119994373893701</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>1.3967473796082199</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>1.39380156782632</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>1.4304997996072499</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="22">
         <v>1.4864632518449801</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="22">
         <v>1.56878019180493</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="22">
         <v>1.68494463690171</v>
       </c>
     </row>
@@ -47925,34 +47923,34 @@
       <c r="A9" s="4">
         <v>0.17</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>1.5945002255287299</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>1.4850932858602</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>1.43104929182501</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>1.4019054503488899</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="22">
         <v>1.3870565201138301</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <v>1.3849671009928</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <v>1.4230933629334099</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="22">
         <v>1.47917137971871</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="22">
         <v>1.5610194533945101</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="22">
         <v>1.6770647721057299</v>
       </c>
     </row>
@@ -47960,34 +47958,34 @@
       <c r="A10" s="1">
         <v>0.18</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>1.5836017236812401</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>1.4748312935107699</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>1.4212462951203699</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <v>1.39241370312351</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <v>1.3779474464944099</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>1.37664990303374</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>1.41617949223971</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <v>1.4723874050917101</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="22">
         <v>1.5538087092022299</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="22">
         <v>1.6697423847200601</v>
       </c>
     </row>
@@ -47995,34 +47993,34 @@
       <c r="A11" s="4">
         <v>0.19</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>1.5732771233966001</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>1.4651262511819501</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <v>1.41198554844377</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <v>1.38345461961298</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <v>1.3693532677601401</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <v>1.3687909861696199</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <v>1.4097040219572201</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="22">
         <v>1.46605622796861</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="22">
         <v>1.5470884795448601</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="22">
         <v>1.6629175318553899</v>
       </c>
     </row>
@@ -48030,34 +48028,34 @@
       <c r="A12" s="1">
         <v>0.2</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>1.5634625179422199</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>1.4559163671886699</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>1.40320712838759</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <v>1.3749695617795199</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>1.36121758449478</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>1.361340484753</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>1.40362132180723</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="22">
         <v>1.4601314378929999</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="22">
         <v>1.54080868074122</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="22">
         <v>1.65653946315373</v>
       </c>
     </row>
@@ -49988,34 +49986,34 @@
       <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -50023,16 +50021,16 @@
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -50333,22 +50331,22 @@
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -50356,12 +50354,12 @@
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -52031,34 +52029,34 @@
       <c r="A2" s="1">
         <v>5000</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>1.35336012073956</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="22">
         <v>1.4945018804886001</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>1.4325801551453199</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="22">
         <v>1.39858940083383</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="22">
         <v>1.3809881433823199</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="22">
         <v>1.3778105445833899</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="22">
         <v>1.41692953306145</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="22">
         <v>1.4730097326004099</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="22">
         <v>1.5544198107345799</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="22">
         <v>1.67034599713369</v>
       </c>
     </row>
@@ -52066,34 +52064,34 @@
       <c r="A3" s="4">
         <v>10000</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>1.4309405747186801</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>1.47934181985933</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>1.42132217129022</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="22">
         <v>1.38967585677008</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>1.3735978535403801</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="22">
         <v>1.37169656400171</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="22">
         <v>1.41199072338353</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="22">
         <v>1.4682357860509501</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="22">
         <v>1.54937711728243</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="22">
         <v>1.6652337764001599</v>
       </c>
     </row>
@@ -52101,34 +52099,34 @@
       <c r="A4" s="4">
         <v>15000</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>1.47842209226165</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>1.4706112007635599</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>1.4146660937055799</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>1.3843213802761101</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>1.3691157889387799</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>1.3679631826051</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>1.4089738882276699</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="22">
         <v>1.46531644586007</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="22">
         <v>1.54629168540638</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="22">
         <v>1.6621041222524899</v>
       </c>
     </row>
@@ -52136,34 +52134,34 @@
       <c r="A5" s="4">
         <v>20000</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>1.5131079366093501</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>1.4644772459137101</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>1.4099203460951699</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>1.3804681231909901</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <v>1.3658719251526299</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <v>1.3652498032210001</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="22">
         <v>1.40678098500994</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="22">
         <v>1.46319299766616</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="22">
         <v>1.5440466557007599</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="22">
         <v>1.6598261437771999</v>
       </c>
     </row>
@@ -52171,34 +52169,34 @@
       <c r="A6" s="4">
         <v>25000</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>1.54060344583415</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>1.4597536828719899</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>1.4062288224519499</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>1.37745129551309</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>1.36332190013871</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>1.3631102817403</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>1.40505175908361</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="22">
         <v>1.4615177396198999</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="22">
         <v>1.54227502851303</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="22">
         <v>1.6580280335441999</v>
       </c>
     </row>
@@ -52206,34 +52204,34 @@
       <c r="A7" s="4">
         <v>30000</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>1.5634625106220399</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>1.45591635901876</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>1.4032071207000101</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>1.3749695559555599</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <v>1.3612175801362201</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>1.36134048121113</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>1.4036213186166799</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="22">
         <v>1.4601314348997001</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="22">
         <v>1.5408086804721499</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <v>1.6565394650131999</v>
       </c>
     </row>
@@ -52241,34 +52239,34 @@
       <c r="A8" s="4">
         <v>35000</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>1.5830715194413501</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>1.4526873896710299</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>1.40064912161182</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <v>1.3728602124573801</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>1.35942445582769</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>1.3598294331390901</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>1.40240000287095</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="22">
         <v>1.45894743909288</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="22">
         <v>1.53955612362326</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="22">
         <v>1.65526768593827</v>
       </c>
     </row>
@@ -52276,34 +52274,34 @@
       <c r="A9" s="4">
         <v>40000</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>1.6002700283893501</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>1.44990171388656</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>1.39843130915673</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>1.3710252522839499</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="22">
         <v>1.3578612346415799</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <v>1.3585099156468401</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <v>1.4013334883915001</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="22">
         <v>1.45791324956562</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="22">
         <v>1.5384618877923399</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="22">
         <v>1.65415650124874</v>
       </c>
     </row>
@@ -52311,34 +52309,34 @@
       <c r="A10" s="4">
         <v>45000</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>1.61560626737307</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>1.44745331100007</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>1.3964737908870499</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <v>1.36940100876654</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <v>1.3564749691421201</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>1.3573380655094101</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>1.40038634541705</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <v>1.4569946174800601</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="22">
         <v>1.53748981385877</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="22">
         <v>1.6531692300107199</v>
       </c>
     </row>
@@ -52346,34 +52344,34 @@
       <c r="A11" s="4">
         <v>50000</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>1.6294585837823099</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>1.44527007746166</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <v>1.3947219046229899</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <v>1.3679437397516201</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <v>1.3552291944495101</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <v>1.3562836219316099</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <v>1.39953410063386</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="22">
         <v>1.4561678528887401</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="22">
         <v>1.53661485252264</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="22">
         <v>1.6522804776990601</v>
       </c>
     </row>
@@ -52405,10 +52403,10 @@
       <c r="A19" s="4">
         <v>5000</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="21">
         <v>47.440450165531303</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>54.597555653873101</v>
       </c>
       <c r="D19" s="17">
@@ -52430,10 +52428,10 @@
       <c r="A20" s="4">
         <v>10000</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="21">
         <v>49.5806611778522</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="21">
         <v>56.594539382689803</v>
       </c>
       <c r="D20" s="17">
@@ -52455,10 +52453,10 @@
       <c r="A21" s="4">
         <v>15000</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="21">
         <v>50.942803952252902</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>57.867665826496498</v>
       </c>
       <c r="D21" s="17">
@@ -52480,10 +52478,10 @@
       <c r="A22" s="4">
         <v>20000</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="21">
         <v>51.959964607604498</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="21">
         <v>58.820327284194299</v>
       </c>
       <c r="D22" s="17">
@@ -52505,10 +52503,10 @@
       <c r="A23" s="4">
         <v>25000</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="21">
         <v>52.778513959758399</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>59.588465302884899</v>
       </c>
       <c r="D23" s="17">
@@ -52530,10 +52528,10 @@
       <c r="A24" s="4">
         <v>30000</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="21">
         <v>53.466814491390203</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="21">
         <v>60.2355048661097</v>
       </c>
       <c r="D24" s="17">
@@ -52555,10 +52553,10 @@
       <c r="A25" s="4">
         <v>35000</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="21">
         <v>54.062631859358198</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="21">
         <v>60.796514592899001</v>
       </c>
       <c r="D25" s="17">
@@ -52580,10 +52578,10 @@
       <c r="A26" s="4">
         <v>40000</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="21">
         <v>54.589144996629599</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="21">
         <v>61.2930028216945</v>
       </c>
       <c r="D26" s="17">
@@ -52605,10 +52603,10 @@
       <c r="A27" s="4">
         <v>45000</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="21">
         <v>55.061654389207199</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="21">
         <v>61.739137417724301</v>
       </c>
       <c r="D27" s="17">
@@ -52630,10 +52628,10 @@
       <c r="A28" s="4">
         <v>50000</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="21">
         <v>55.490815494182399</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="21">
         <v>62.144927195652997</v>
       </c>
       <c r="D28" s="17">

--- a/tisk.xlsx
+++ b/tisk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
@@ -746,12 +746,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -759,6 +753,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17325,7 +17325,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -46712,7 +46712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -46726,35 +46726,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="23" t="s">
         <v>44</v>
       </c>
@@ -46773,7 +46773,7 @@
       <c r="G2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="23" t="s">
         <v>44</v>
       </c>
@@ -47630,7 +47630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
